--- a/StructureDefinition-ext-R5-Bundle.link.xlsx
+++ b/StructureDefinition-ext-R5-Bundle.link.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Bundle.link.xlsx
+++ b/StructureDefinition-ext-R5-Bundle.link.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `Bundle.link` 0..* `BackboneElement`
 *  R4: `Bundle.link` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Bundle.link` is mapped to FHIR R4 element `Bundle.link`.</t>
+Element `Bundle.link` has is mapped to FHIR R4 element `Bundle.link`, but has no comparisons.
+Note available implied context: `Bundle.entry.link` because `Bundle.entry.link` is defined as a content reference to `Bundle.link`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:Bundle.link</t>
   </si>
   <si>
     <t>ID</t>
@@ -348,8 +349,8 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Element `Bundle.link.relation` is part of an existing definition because parent element `Bundle.link` requires a component extension (e.g., if this element is used as a content reference).
-Element `Bundle.link.relation` is mapped to FHIR R4 element `Bundle.link.relation`.</t>
+    <t>Element `Bundle.link.relation` is part of an existing definition because parent element `Bundle.link` requires a cross-version extension.
+Element `Bundle.link.relation` has is mapped to FHIR R4 element `Bundle.link.relation`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relation.id</t>
@@ -434,8 +435,8 @@
     <t>The reference details for the link.</t>
   </si>
   <si>
-    <t>Element `Bundle.link.url` is part of an existing definition because parent element `Bundle.link` requires a component extension (e.g., if this element is used as a content reference).
-Element `Bundle.link.url` is mapped to FHIR R4 element `Bundle.link.url`.</t>
+    <t>Element `Bundle.link.url` is part of an existing definition because parent element `Bundle.link` requires a cross-version extension.
+Element `Bundle.link.url` has is mapped to FHIR R4 element `Bundle.link.url`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:url.id</t>
@@ -800,7 +801,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="148.5" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="108.38671875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Bundle.link.xlsx
+++ b/StructureDefinition-ext-R5-Bundle.link.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
